--- a/rel_cols.xlsx
+++ b/rel_cols.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="rel_cols" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rel_cols!$E$1:$E$1745</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rel_cols!$A$1:$K$1745</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -16354,11 +16354,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K1745"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A751" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16410,7 +16411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -16442,7 +16443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -16474,7 +16475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -16506,7 +16507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -16538,7 +16539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -16570,7 +16571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -16634,7 +16635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -16666,7 +16667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -16730,7 +16731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -16762,7 +16763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -16794,7 +16795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -16826,7 +16827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -16858,7 +16859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -16890,7 +16891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -16922,7 +16923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -17517,7 +17518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -17552,7 +17553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -17587,7 +17588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>125</v>
       </c>
@@ -17619,7 +17620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -17651,7 +17652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -17683,7 +17684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -17715,7 +17716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -17747,7 +17748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -17779,7 +17780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -17811,7 +17812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -17843,7 +17844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -17875,7 +17876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -17907,7 +17908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -17939,7 +17940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -17971,7 +17972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -18003,7 +18004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -18035,7 +18036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>153</v>
       </c>
@@ -18067,7 +18068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>157</v>
       </c>
@@ -18099,7 +18100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>160</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>262</v>
       </c>
@@ -19111,7 +19112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>264</v>
       </c>
@@ -19146,7 +19147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>266</v>
       </c>
@@ -19178,7 +19179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>271</v>
       </c>
@@ -19242,7 +19243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>273</v>
       </c>
@@ -19274,7 +19275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>274</v>
       </c>
@@ -19306,7 +19307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>276</v>
       </c>
@@ -19338,7 +19339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>277</v>
       </c>
@@ -19370,7 +19371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>279</v>
       </c>
@@ -19402,7 +19403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>281</v>
       </c>
@@ -19434,7 +19435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>283</v>
       </c>
@@ -19466,7 +19467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>285</v>
       </c>
@@ -19498,7 +19499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>287</v>
       </c>
@@ -19530,7 +19531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>289</v>
       </c>
@@ -19562,7 +19563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>291</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>292</v>
       </c>
@@ -19626,7 +19627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -19658,7 +19659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -19690,7 +19691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -19722,7 +19723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>298</v>
       </c>
@@ -19754,7 +19755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -20346,7 +20347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>359</v>
       </c>
@@ -20381,7 +20382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>361</v>
       </c>
@@ -20416,7 +20417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>363</v>
       </c>
@@ -20448,7 +20449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>366</v>
       </c>
@@ -20480,7 +20481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>368</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>370</v>
       </c>
@@ -20544,7 +20545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -20576,7 +20577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>375</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>377</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>378</v>
       </c>
@@ -20672,7 +20673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>380</v>
       </c>
@@ -20704,7 +20705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -20736,7 +20737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>383</v>
       </c>
@@ -20768,7 +20769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>385</v>
       </c>
@@ -20800,7 +20801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>387</v>
       </c>
@@ -20832,7 +20833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>389</v>
       </c>
@@ -20864,7 +20865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>390</v>
       </c>
@@ -20896,7 +20897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>391</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>392</v>
       </c>
@@ -20960,7 +20961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>394</v>
       </c>
@@ -20992,7 +20993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>395</v>
       </c>
@@ -21024,7 +21025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>396</v>
       </c>
@@ -21056,7 +21057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>397</v>
       </c>
@@ -21088,7 +21089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>398</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>399</v>
       </c>
@@ -21152,7 +21153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>400</v>
       </c>
@@ -21184,7 +21185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -21216,7 +21217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>403</v>
       </c>
@@ -22018,7 +22019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>478</v>
       </c>
@@ -22053,7 +22054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>480</v>
       </c>
@@ -22088,7 +22089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>482</v>
       </c>
@@ -22120,7 +22121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>485</v>
       </c>
@@ -22152,7 +22153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>487</v>
       </c>
@@ -22184,7 +22185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>490</v>
       </c>
@@ -22216,7 +22217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>493</v>
       </c>
@@ -22248,7 +22249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>495</v>
       </c>
@@ -22280,7 +22281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>497</v>
       </c>
@@ -22312,7 +22313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>498</v>
       </c>
@@ -22344,7 +22345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -22376,7 +22377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>500</v>
       </c>
@@ -22408,7 +22409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>501</v>
       </c>
@@ -22440,7 +22441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>502</v>
       </c>
@@ -22472,7 +22473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>503</v>
       </c>
@@ -22504,7 +22505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>505</v>
       </c>
@@ -22536,7 +22537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>506</v>
       </c>
@@ -22568,7 +22569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>508</v>
       </c>
@@ -22600,7 +22601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>510</v>
       </c>
@@ -22632,7 +22633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>512</v>
       </c>
@@ -22664,7 +22665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>514</v>
       </c>
@@ -22696,7 +22697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>515</v>
       </c>
@@ -22728,7 +22729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>516</v>
       </c>
@@ -22760,7 +22761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>517</v>
       </c>
@@ -22792,7 +22793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>519</v>
       </c>
@@ -22824,7 +22825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>520</v>
       </c>
@@ -22856,7 +22857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>521</v>
       </c>
@@ -23623,7 +23624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>591</v>
       </c>
@@ -23658,7 +23659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>593</v>
       </c>
@@ -23693,7 +23694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>595</v>
       </c>
@@ -23728,7 +23729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>597</v>
       </c>
@@ -23763,7 +23764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>599</v>
       </c>
@@ -23798,7 +23799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>601</v>
       </c>
@@ -23833,7 +23834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>604</v>
       </c>
@@ -23865,7 +23866,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>611</v>
       </c>
@@ -23897,7 +23898,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>614</v>
       </c>
@@ -23929,7 +23930,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>617</v>
       </c>
@@ -23961,7 +23962,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>620</v>
       </c>
@@ -23993,7 +23994,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>624</v>
       </c>
@@ -24025,7 +24026,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>627</v>
       </c>
@@ -24057,7 +24058,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>630</v>
       </c>
@@ -24089,7 +24090,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>633</v>
       </c>
@@ -24121,7 +24122,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>636</v>
       </c>
@@ -24153,7 +24154,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>639</v>
       </c>
@@ -24185,7 +24186,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>642</v>
       </c>
@@ -24217,7 +24218,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>645</v>
       </c>
@@ -24249,7 +24250,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>648</v>
       </c>
@@ -24281,7 +24282,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>651</v>
       </c>
@@ -24313,7 +24314,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>653</v>
       </c>
@@ -24345,7 +24346,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>655</v>
       </c>
@@ -24377,7 +24378,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>657</v>
       </c>
@@ -24409,7 +24410,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>659</v>
       </c>
@@ -24441,7 +24442,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>661</v>
       </c>
@@ -24473,7 +24474,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>663</v>
       </c>
@@ -24505,7 +24506,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>666</v>
       </c>
@@ -24537,7 +24538,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>669</v>
       </c>
@@ -24569,7 +24570,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>672</v>
       </c>
@@ -24601,7 +24602,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>675</v>
       </c>
@@ -24633,7 +24634,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>678</v>
       </c>
@@ -24665,7 +24666,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>680</v>
       </c>
@@ -24697,7 +24698,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>682</v>
       </c>
@@ -24729,7 +24730,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>684</v>
       </c>
@@ -24761,7 +24762,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>686</v>
       </c>
@@ -24793,7 +24794,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>688</v>
       </c>
@@ -24825,7 +24826,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>690</v>
       </c>
@@ -24857,7 +24858,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>692</v>
       </c>
@@ -24889,7 +24890,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>694</v>
       </c>
@@ -24921,7 +24922,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>696</v>
       </c>
@@ -24953,7 +24954,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>698</v>
       </c>
@@ -24985,7 +24986,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>700</v>
       </c>
@@ -25017,7 +25018,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>702</v>
       </c>
@@ -25049,7 +25050,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>704</v>
       </c>
@@ -25081,7 +25082,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>707</v>
       </c>
@@ -25113,7 +25114,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>710</v>
       </c>
@@ -25145,7 +25146,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>713</v>
       </c>
@@ -25177,7 +25178,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>716</v>
       </c>
@@ -25209,7 +25210,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>719</v>
       </c>
@@ -25241,7 +25242,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>722</v>
       </c>
@@ -25273,7 +25274,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>725</v>
       </c>
@@ -25305,7 +25306,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>728</v>
       </c>
@@ -25337,7 +25338,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>731</v>
       </c>
@@ -25369,7 +25370,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>734</v>
       </c>
@@ -25401,7 +25402,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>737</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>740</v>
       </c>
@@ -25465,7 +25466,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>742</v>
       </c>
@@ -25497,7 +25498,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>744</v>
       </c>
@@ -25529,7 +25530,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>746</v>
       </c>
@@ -25561,7 +25562,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>748</v>
       </c>
@@ -25593,7 +25594,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>751</v>
       </c>
@@ -25625,7 +25626,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>754</v>
       </c>
@@ -25657,7 +25658,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>756</v>
       </c>
@@ -25689,7 +25690,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>758</v>
       </c>
@@ -25721,7 +25722,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>760</v>
       </c>
@@ -25753,7 +25754,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>762</v>
       </c>
@@ -25785,7 +25786,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>764</v>
       </c>
@@ -25817,7 +25818,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>766</v>
       </c>
@@ -25849,7 +25850,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>768</v>
       </c>
@@ -25881,7 +25882,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>770</v>
       </c>
@@ -25913,7 +25914,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>772</v>
       </c>
@@ -25945,7 +25946,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>774</v>
       </c>
@@ -25977,7 +25978,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>777</v>
       </c>
@@ -26009,7 +26010,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>780</v>
       </c>
@@ -26041,7 +26042,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>783</v>
       </c>
@@ -26073,7 +26074,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>786</v>
       </c>
@@ -26105,7 +26106,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>789</v>
       </c>
@@ -26137,7 +26138,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>792</v>
       </c>
@@ -26169,7 +26170,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>795</v>
       </c>
@@ -26201,7 +26202,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>798</v>
       </c>
@@ -26233,7 +26234,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>801</v>
       </c>
@@ -26265,7 +26266,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>804</v>
       </c>
@@ -26297,7 +26298,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>807</v>
       </c>
@@ -26329,7 +26330,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>810</v>
       </c>
@@ -26361,7 +26362,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>813</v>
       </c>
@@ -26393,7 +26394,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>816</v>
       </c>
@@ -26428,7 +26429,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>822</v>
       </c>
@@ -26463,7 +26464,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>826</v>
       </c>
@@ -26498,7 +26499,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>830</v>
       </c>
@@ -26533,7 +26534,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>834</v>
       </c>
@@ -26568,7 +26569,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>838</v>
       </c>
@@ -26603,7 +26604,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>842</v>
       </c>
@@ -26638,7 +26639,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>846</v>
       </c>
@@ -26673,7 +26674,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>850</v>
       </c>
@@ -26708,7 +26709,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>854</v>
       </c>
@@ -26743,7 +26744,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>858</v>
       </c>
@@ -26778,7 +26779,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>862</v>
       </c>
@@ -26813,7 +26814,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>866</v>
       </c>
@@ -26848,7 +26849,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>870</v>
       </c>
@@ -26883,7 +26884,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>873</v>
       </c>
@@ -26918,7 +26919,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>877</v>
       </c>
@@ -26953,7 +26954,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>880</v>
       </c>
@@ -26988,7 +26989,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>884</v>
       </c>
@@ -27023,7 +27024,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>888</v>
       </c>
@@ -27058,7 +27059,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>892</v>
       </c>
@@ -27093,7 +27094,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>896</v>
       </c>
@@ -27128,7 +27129,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>899</v>
       </c>
@@ -27163,7 +27164,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>903</v>
       </c>
@@ -27198,7 +27199,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>906</v>
       </c>
@@ -27233,7 +27234,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>910</v>
       </c>
@@ -27268,7 +27269,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>914</v>
       </c>
@@ -27303,7 +27304,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>918</v>
       </c>
@@ -27338,7 +27339,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>922</v>
       </c>
@@ -27373,7 +27374,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>926</v>
       </c>
@@ -27408,7 +27409,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>929</v>
       </c>
@@ -27443,7 +27444,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>933</v>
       </c>
@@ -27478,7 +27479,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>937</v>
       </c>
@@ -27513,7 +27514,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>940</v>
       </c>
@@ -27548,7 +27549,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>943</v>
       </c>
@@ -27583,7 +27584,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>946</v>
       </c>
@@ -27618,7 +27619,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>949</v>
       </c>
@@ -27653,7 +27654,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>953</v>
       </c>
@@ -27688,7 +27689,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>957</v>
       </c>
@@ -27723,7 +27724,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>960</v>
       </c>
@@ -27758,7 +27759,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>964</v>
       </c>
@@ -27793,7 +27794,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>968</v>
       </c>
@@ -27828,7 +27829,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>972</v>
       </c>
@@ -27863,7 +27864,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>976</v>
       </c>
@@ -27898,7 +27899,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>979</v>
       </c>
@@ -27933,7 +27934,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>982</v>
       </c>
@@ -27968,7 +27969,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>984</v>
       </c>
@@ -28003,7 +28004,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>987</v>
       </c>
@@ -28038,7 +28039,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>990</v>
       </c>
@@ -28073,7 +28074,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>993</v>
       </c>
@@ -28108,7 +28109,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>996</v>
       </c>
@@ -28143,7 +28144,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>999</v>
       </c>
@@ -28178,7 +28179,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1002</v>
       </c>
@@ -28213,7 +28214,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1006</v>
       </c>
@@ -28248,7 +28249,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1009</v>
       </c>
@@ -28283,7 +28284,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1013</v>
       </c>
@@ -28318,7 +28319,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1017</v>
       </c>
@@ -33950,7 +33951,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1549</v>
       </c>
@@ -33982,7 +33983,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1552</v>
       </c>
@@ -34014,7 +34015,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1555</v>
       </c>
@@ -34046,7 +34047,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1558</v>
       </c>
@@ -34078,7 +34079,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1561</v>
       </c>
@@ -34110,7 +34111,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1564</v>
       </c>
@@ -34142,7 +34143,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1567</v>
       </c>
@@ -34174,7 +34175,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1570</v>
       </c>
@@ -34206,7 +34207,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1573</v>
       </c>
@@ -34238,7 +34239,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1576</v>
       </c>
@@ -34270,7 +34271,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1579</v>
       </c>
@@ -34302,7 +34303,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1582</v>
       </c>
@@ -34334,7 +34335,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1585</v>
       </c>
@@ -34366,7 +34367,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1588</v>
       </c>
@@ -34398,7 +34399,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1591</v>
       </c>
@@ -34430,7 +34431,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1594</v>
       </c>
@@ -34462,7 +34463,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1597</v>
       </c>
@@ -34494,7 +34495,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1600</v>
       </c>
@@ -34526,7 +34527,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1602</v>
       </c>
@@ -34558,7 +34559,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1604</v>
       </c>
@@ -34590,7 +34591,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1606</v>
       </c>
@@ -34622,7 +34623,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1608</v>
       </c>
@@ -34654,7 +34655,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1610</v>
       </c>
@@ -34686,7 +34687,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1612</v>
       </c>
@@ -34718,7 +34719,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1614</v>
       </c>
@@ -34750,7 +34751,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1616</v>
       </c>
@@ -34782,7 +34783,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1619</v>
       </c>
@@ -34814,7 +34815,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1622</v>
       </c>
@@ -34846,7 +34847,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1625</v>
       </c>
@@ -34878,7 +34879,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1628</v>
       </c>
@@ -34910,7 +34911,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1631</v>
       </c>
@@ -34942,7 +34943,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1633</v>
       </c>
@@ -34974,7 +34975,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1635</v>
       </c>
@@ -35006,7 +35007,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1637</v>
       </c>
@@ -35038,7 +35039,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1639</v>
       </c>
@@ -35070,7 +35071,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1641</v>
       </c>
@@ -35102,7 +35103,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1643</v>
       </c>
@@ -35134,7 +35135,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1645</v>
       </c>
@@ -35166,7 +35167,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1647</v>
       </c>
@@ -35198,7 +35199,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1649</v>
       </c>
@@ -35230,7 +35231,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1651</v>
       </c>
@@ -35262,7 +35263,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1653</v>
       </c>
@@ -35294,7 +35295,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1655</v>
       </c>
@@ -35326,7 +35327,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1657</v>
       </c>
@@ -35358,7 +35359,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1659</v>
       </c>
@@ -35390,7 +35391,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1662</v>
       </c>
@@ -35422,7 +35423,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1665</v>
       </c>
@@ -35454,7 +35455,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1668</v>
       </c>
@@ -35486,7 +35487,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1671</v>
       </c>
@@ -35518,7 +35519,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1674</v>
       </c>
@@ -35550,7 +35551,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1677</v>
       </c>
@@ -35582,7 +35583,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="570" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1680</v>
       </c>
@@ -35614,7 +35615,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1683</v>
       </c>
@@ -35646,7 +35647,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1686</v>
       </c>
@@ -35678,7 +35679,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1688</v>
       </c>
@@ -35710,7 +35711,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1690</v>
       </c>
@@ -35742,7 +35743,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1692</v>
       </c>
@@ -35774,7 +35775,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1694</v>
       </c>
@@ -35806,7 +35807,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1696</v>
       </c>
@@ -35838,7 +35839,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1698</v>
       </c>
@@ -35870,7 +35871,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1700</v>
       </c>
@@ -35902,7 +35903,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1702</v>
       </c>
@@ -35934,7 +35935,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1704</v>
       </c>
@@ -35966,7 +35967,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1706</v>
       </c>
@@ -35998,7 +35999,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1708</v>
       </c>
@@ -36030,7 +36031,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1710</v>
       </c>
@@ -36062,7 +36063,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1713</v>
       </c>
@@ -36094,7 +36095,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1716</v>
       </c>
@@ -36126,7 +36127,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1719</v>
       </c>
@@ -36158,7 +36159,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1722</v>
       </c>
@@ -36190,7 +36191,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1725</v>
       </c>
@@ -36222,7 +36223,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1728</v>
       </c>
@@ -36254,7 +36255,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1731</v>
       </c>
@@ -36286,7 +36287,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1734</v>
       </c>
@@ -36318,7 +36319,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1737</v>
       </c>
@@ -36350,7 +36351,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1740</v>
       </c>
@@ -36382,7 +36383,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1743</v>
       </c>
@@ -41833,7 +41834,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>2226</v>
       </c>
@@ -41868,7 +41869,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>2230</v>
       </c>
@@ -41903,7 +41904,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>2233</v>
       </c>
@@ -41938,7 +41939,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>2237</v>
       </c>
@@ -41973,7 +41974,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>2241</v>
       </c>
@@ -42008,7 +42009,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>2245</v>
       </c>
@@ -42043,7 +42044,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>2248</v>
       </c>
@@ -42078,7 +42079,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="758" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>2251</v>
       </c>
@@ -42113,7 +42114,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="759" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>2255</v>
       </c>
@@ -42148,7 +42149,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="760" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>2258</v>
       </c>
@@ -42183,7 +42184,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>2262</v>
       </c>
@@ -42218,7 +42219,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>2265</v>
       </c>
@@ -42253,7 +42254,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>2268</v>
       </c>
@@ -42288,7 +42289,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>2271</v>
       </c>
@@ -42323,7 +42324,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>2274</v>
       </c>
@@ -42358,7 +42359,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>2277</v>
       </c>
@@ -42393,7 +42394,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="767" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>2281</v>
       </c>
@@ -42428,7 +42429,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="768" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>2285</v>
       </c>
@@ -42463,7 +42464,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>2287</v>
       </c>
@@ -42498,7 +42499,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="770" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>2291</v>
       </c>
@@ -42533,7 +42534,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="771" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>2295</v>
       </c>
@@ -42568,7 +42569,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="772" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>2298</v>
       </c>
@@ -42603,7 +42604,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="773" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>2302</v>
       </c>
@@ -42638,7 +42639,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>2305</v>
       </c>
@@ -42673,7 +42674,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="775" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>2309</v>
       </c>
@@ -42708,7 +42709,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="776" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>2313</v>
       </c>
@@ -42743,7 +42744,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="777" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>2316</v>
       </c>
@@ -42778,7 +42779,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="778" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>2319</v>
       </c>
@@ -42813,7 +42814,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="779" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>2323</v>
       </c>
@@ -42848,7 +42849,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="780" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>2327</v>
       </c>
@@ -42883,7 +42884,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>2331</v>
       </c>
@@ -42918,7 +42919,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="782" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>2333</v>
       </c>
@@ -42953,7 +42954,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>2335</v>
       </c>
@@ -42988,7 +42989,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="784" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>2337</v>
       </c>
@@ -43023,7 +43024,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>2341</v>
       </c>
@@ -43058,7 +43059,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>2344</v>
       </c>
@@ -43093,7 +43094,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>2346</v>
       </c>
@@ -43128,7 +43129,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>2350</v>
       </c>
@@ -43163,7 +43164,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>2352</v>
       </c>
@@ -43198,7 +43199,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>2354</v>
       </c>
@@ -43233,7 +43234,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>2358</v>
       </c>
@@ -43268,7 +43269,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>2360</v>
       </c>
@@ -43303,7 +43304,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>2362</v>
       </c>
@@ -43338,7 +43339,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>2365</v>
       </c>
@@ -43373,7 +43374,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>2368</v>
       </c>
@@ -43408,7 +43409,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>2371</v>
       </c>
@@ -43443,7 +43444,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>2374</v>
       </c>
@@ -43478,7 +43479,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>2378</v>
       </c>
@@ -43513,7 +43514,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>2382</v>
       </c>
@@ -43548,7 +43549,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="800" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>2385</v>
       </c>
@@ -43583,7 +43584,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="801" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>2389</v>
       </c>
@@ -43618,7 +43619,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>2393</v>
       </c>
@@ -43653,7 +43654,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="803" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>2396</v>
       </c>
@@ -43688,7 +43689,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="804" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>2399</v>
       </c>
@@ -43720,7 +43721,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>2401</v>
       </c>
@@ -43752,7 +43753,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="806" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>2403</v>
       </c>
@@ -43784,7 +43785,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>2405</v>
       </c>
@@ -43816,7 +43817,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>2407</v>
       </c>
@@ -43848,7 +43849,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>2409</v>
       </c>
@@ -43880,7 +43881,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>2411</v>
       </c>
@@ -43912,7 +43913,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="811" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>2413</v>
       </c>
@@ -43944,7 +43945,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="812" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>2415</v>
       </c>
@@ -43976,7 +43977,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>2417</v>
       </c>
@@ -44008,7 +44009,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="814" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>2419</v>
       </c>
@@ -44040,7 +44041,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>2421</v>
       </c>
@@ -44072,7 +44073,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="816" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>2423</v>
       </c>
@@ -44104,7 +44105,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="817" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>2425</v>
       </c>
@@ -44136,7 +44137,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="818" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>2427</v>
       </c>
@@ -44168,7 +44169,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>2429</v>
       </c>
@@ -44200,7 +44201,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="820" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>2431</v>
       </c>
@@ -44232,7 +44233,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>2434</v>
       </c>
@@ -44264,7 +44265,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="822" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>2437</v>
       </c>
@@ -44296,7 +44297,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="823" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>2440</v>
       </c>
@@ -44328,7 +44329,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="824" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>2443</v>
       </c>
@@ -44360,7 +44361,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="825" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>2446</v>
       </c>
@@ -44392,7 +44393,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="826" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>2449</v>
       </c>
@@ -44424,7 +44425,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="827" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>2452</v>
       </c>
@@ -44456,7 +44457,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>2455</v>
       </c>
@@ -44488,7 +44489,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>2458</v>
       </c>
@@ -44520,7 +44521,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="830" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>2461</v>
       </c>
@@ -44552,7 +44553,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>2464</v>
       </c>
@@ -44584,7 +44585,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="832" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>2467</v>
       </c>
@@ -44616,7 +44617,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>2470</v>
       </c>
@@ -44648,7 +44649,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="834" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>2473</v>
       </c>
@@ -44680,7 +44681,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>2476</v>
       </c>
@@ -44712,7 +44713,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>2479</v>
       </c>
@@ -44744,7 +44745,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>2482</v>
       </c>
@@ -44776,7 +44777,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>2485</v>
       </c>
@@ -44808,7 +44809,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="839" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>2488</v>
       </c>
@@ -44840,7 +44841,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>2491</v>
       </c>
@@ -44872,7 +44873,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="841" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>2494</v>
       </c>
@@ -44904,7 +44905,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="842" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>2497</v>
       </c>
@@ -44936,7 +44937,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="843" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>2500</v>
       </c>
@@ -44968,7 +44969,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="844" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>2503</v>
       </c>
@@ -45000,7 +45001,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="845" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>2505</v>
       </c>
@@ -45032,7 +45033,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="846" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
         <v>2507</v>
       </c>
@@ -45064,7 +45065,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="847" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>2509</v>
       </c>
@@ -45096,7 +45097,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="848" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>2511</v>
       </c>
@@ -45128,7 +45129,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="849" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>2513</v>
       </c>
@@ -45160,7 +45161,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="850" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>2515</v>
       </c>
@@ -45192,7 +45193,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="851" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>2518</v>
       </c>
@@ -45224,7 +45225,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="852" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>2520</v>
       </c>
@@ -45256,7 +45257,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="853" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>2522</v>
       </c>
@@ -45288,7 +45289,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="854" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>2524</v>
       </c>
@@ -45320,7 +45321,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="855" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>2526</v>
       </c>
@@ -45352,7 +45353,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="856" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>2528</v>
       </c>
@@ -45384,7 +45385,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="857" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>2530</v>
       </c>
@@ -45416,7 +45417,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="858" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>2532</v>
       </c>
@@ -45448,7 +45449,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="859" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>2534</v>
       </c>
@@ -45480,7 +45481,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="860" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>2536</v>
       </c>
@@ -45512,7 +45513,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="861" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>2538</v>
       </c>
@@ -45544,7 +45545,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="862" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>2540</v>
       </c>
@@ -45576,7 +45577,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="863" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>2542</v>
       </c>
@@ -45608,7 +45609,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="864" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>2545</v>
       </c>
@@ -45640,7 +45641,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="865" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>2548</v>
       </c>
@@ -45672,7 +45673,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="866" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
         <v>2551</v>
       </c>
@@ -45704,7 +45705,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="867" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>2554</v>
       </c>
@@ -45736,7 +45737,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="868" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>2557</v>
       </c>
@@ -45768,7 +45769,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="869" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>2560</v>
       </c>
@@ -45800,7 +45801,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="870" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>2562</v>
       </c>
@@ -45832,7 +45833,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="871" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>2565</v>
       </c>
@@ -45864,7 +45865,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="872" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>2568</v>
       </c>
@@ -45899,7 +45900,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="873" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>2572</v>
       </c>
@@ -45934,7 +45935,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="874" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>2575</v>
       </c>
@@ -45969,7 +45970,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="875" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>2578</v>
       </c>
@@ -46004,7 +46005,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="876" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>2581</v>
       </c>
@@ -46039,7 +46040,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="877" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>2585</v>
       </c>
@@ -46074,7 +46075,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="878" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>2588</v>
       </c>
@@ -46109,7 +46110,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="879" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>2591</v>
       </c>
@@ -46144,7 +46145,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="880" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>2593</v>
       </c>
@@ -46179,7 +46180,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="881" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>2596</v>
       </c>
@@ -46214,7 +46215,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="882" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>2598</v>
       </c>
@@ -46249,7 +46250,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="883" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>2601</v>
       </c>
@@ -46284,7 +46285,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="884" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>2604</v>
       </c>
@@ -46319,7 +46320,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="885" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>2607</v>
       </c>
@@ -46354,7 +46355,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="886" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>2611</v>
       </c>
@@ -46389,7 +46390,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="887" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>2615</v>
       </c>
@@ -46424,7 +46425,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="888" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>2618</v>
       </c>
@@ -46459,7 +46460,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="889" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>2622</v>
       </c>
@@ -46494,7 +46495,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="890" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>2625</v>
       </c>
@@ -46529,7 +46530,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="891" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>2628</v>
       </c>
@@ -46564,7 +46565,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="892" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>2631</v>
       </c>
@@ -46599,7 +46600,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="893" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>2634</v>
       </c>
@@ -46634,7 +46635,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="894" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>2637</v>
       </c>
@@ -46669,7 +46670,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="895" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>2640</v>
       </c>
@@ -46704,7 +46705,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="896" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>2643</v>
       </c>
@@ -46739,7 +46740,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="897" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>2646</v>
       </c>
@@ -46774,7 +46775,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="898" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>2649</v>
       </c>
@@ -46809,7 +46810,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="899" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>2652</v>
       </c>
@@ -46844,7 +46845,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="900" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>2655</v>
       </c>
@@ -46879,7 +46880,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="901" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>2658</v>
       </c>
@@ -46914,7 +46915,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="902" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>2661</v>
       </c>
@@ -46949,7 +46950,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="903" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>2664</v>
       </c>
@@ -46984,7 +46985,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="904" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>2666</v>
       </c>
@@ -47019,7 +47020,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="905" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>2669</v>
       </c>
@@ -47054,7 +47055,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="906" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>2672</v>
       </c>
@@ -47089,7 +47090,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="907" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>2676</v>
       </c>
@@ -47124,7 +47125,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="908" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>2679</v>
       </c>
@@ -47159,7 +47160,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="909" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>2682</v>
       </c>
@@ -47194,7 +47195,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="910" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>2686</v>
       </c>
@@ -47229,7 +47230,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="911" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>2688</v>
       </c>
@@ -47264,7 +47265,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="912" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>2691</v>
       </c>
@@ -47299,7 +47300,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="913" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>2693</v>
       </c>
@@ -47334,7 +47335,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="914" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>2695</v>
       </c>
@@ -47369,7 +47370,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="915" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>2698</v>
       </c>
@@ -47404,7 +47405,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="916" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>2701</v>
       </c>
@@ -47439,7 +47440,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="917" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>2704</v>
       </c>
@@ -47474,7 +47475,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="918" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>2707</v>
       </c>
@@ -47509,7 +47510,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="919" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>2710</v>
       </c>
@@ -47544,7 +47545,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="920" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>2713</v>
       </c>
@@ -47579,7 +47580,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="921" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>2716</v>
       </c>
@@ -47614,7 +47615,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="922" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>2719</v>
       </c>
@@ -47649,7 +47650,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="923" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>2722</v>
       </c>
@@ -47684,7 +47685,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="924" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>2726</v>
       </c>
@@ -47719,7 +47720,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="925" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>2729</v>
       </c>
@@ -47754,7 +47755,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="926" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>2732</v>
       </c>
@@ -47789,7 +47790,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="927" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>2735</v>
       </c>
@@ -54404,7 +54405,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1116" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
         <v>3318</v>
       </c>
@@ -54439,7 +54440,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1117" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
         <v>3321</v>
       </c>
@@ -54474,7 +54475,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1118" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
         <v>3324</v>
       </c>
@@ -54509,7 +54510,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1119" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
         <v>3327</v>
       </c>
@@ -54544,7 +54545,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1120" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
         <v>3330</v>
       </c>
@@ -54579,7 +54580,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1121" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
         <v>3333</v>
       </c>
@@ -54614,7 +54615,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1122" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
         <v>3337</v>
       </c>
@@ -54649,7 +54650,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1123" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
         <v>3341</v>
       </c>
@@ -54684,7 +54685,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1124" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
         <v>3344</v>
       </c>
@@ -54719,7 +54720,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1125" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
         <v>3346</v>
       </c>
@@ -54754,7 +54755,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1126" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
         <v>3348</v>
       </c>
@@ -54789,7 +54790,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1127" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
         <v>3350</v>
       </c>
@@ -54824,7 +54825,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1128" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
         <v>3352</v>
       </c>
@@ -54859,7 +54860,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1129" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
         <v>3355</v>
       </c>
@@ -54894,7 +54895,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1130" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
         <v>3357</v>
       </c>
@@ -54929,7 +54930,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1131" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
         <v>3359</v>
       </c>
@@ -54964,7 +54965,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
         <v>3363</v>
       </c>
@@ -54999,7 +55000,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1133" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
         <v>3366</v>
       </c>
@@ -55034,7 +55035,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1134" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
         <v>3369</v>
       </c>
@@ -55069,7 +55070,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1135" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
         <v>3372</v>
       </c>
@@ -55104,7 +55105,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1136" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
         <v>3375</v>
       </c>
@@ -55139,7 +55140,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1137" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
         <v>3378</v>
       </c>
@@ -55174,7 +55175,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
         <v>3380</v>
       </c>
@@ -55209,7 +55210,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1139" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
         <v>3382</v>
       </c>
@@ -55244,7 +55245,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1140" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
         <v>3385</v>
       </c>
@@ -55279,7 +55280,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1141" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
         <v>3388</v>
       </c>
@@ -55314,7 +55315,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1142" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
         <v>3391</v>
       </c>
@@ -55349,7 +55350,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1143" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
         <v>3395</v>
       </c>
@@ -55384,7 +55385,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1144" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
         <v>3398</v>
       </c>
@@ -55419,7 +55420,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1145" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
         <v>3402</v>
       </c>
@@ -55454,7 +55455,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1146" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
         <v>3405</v>
       </c>
@@ -55489,7 +55490,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1147" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
         <v>3408</v>
       </c>
@@ -55524,7 +55525,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1148" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
         <v>3411</v>
       </c>
@@ -55559,7 +55560,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1149" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
         <v>3413</v>
       </c>
@@ -55594,7 +55595,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1150" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
         <v>3416</v>
       </c>
@@ -55629,7 +55630,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1151" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
         <v>3419</v>
       </c>
@@ -55664,7 +55665,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1152" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
         <v>3421</v>
       </c>
@@ -55699,7 +55700,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1153" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
         <v>3423</v>
       </c>
@@ -55734,7 +55735,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1154" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
         <v>3427</v>
       </c>
@@ -55769,7 +55770,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1155" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
         <v>3430</v>
       </c>
@@ -55804,7 +55805,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1156" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
         <v>3433</v>
       </c>
@@ -55839,7 +55840,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1157" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
         <v>3436</v>
       </c>
@@ -55874,7 +55875,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1158" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
         <v>3439</v>
       </c>
@@ -55909,7 +55910,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1159" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
         <v>3443</v>
       </c>
@@ -55944,7 +55945,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1160" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
         <v>3446</v>
       </c>
@@ -55979,7 +55980,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1161" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
         <v>3449</v>
       </c>
@@ -56014,7 +56015,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1162" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
         <v>3452</v>
       </c>
@@ -56049,7 +56050,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1163" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
         <v>3455</v>
       </c>
@@ -56084,7 +56085,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1164" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
         <v>3459</v>
       </c>
@@ -56119,7 +56120,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1165" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
         <v>3462</v>
       </c>
@@ -56154,7 +56155,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1166" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
         <v>3465</v>
       </c>
@@ -56189,7 +56190,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1167" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
         <v>3467</v>
       </c>
@@ -56224,7 +56225,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1168" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
         <v>3470</v>
       </c>
@@ -56259,7 +56260,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1169" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
         <v>3473</v>
       </c>
@@ -56294,7 +56295,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1170" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
         <v>3475</v>
       </c>
@@ -56329,7 +56330,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1171" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
         <v>3478</v>
       </c>
@@ -56364,7 +56365,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1172" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
         <v>3481</v>
       </c>
@@ -56399,7 +56400,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1173" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
         <v>3485</v>
       </c>
@@ -56434,7 +56435,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1174" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
         <v>3489</v>
       </c>
@@ -56469,7 +56470,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1175" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
         <v>3493</v>
       </c>
@@ -56504,7 +56505,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1176" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
         <v>3497</v>
       </c>
@@ -56539,7 +56540,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1177" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
         <v>3500</v>
       </c>
@@ -56571,7 +56572,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
         <v>3503</v>
       </c>
@@ -56603,7 +56604,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1179" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
         <v>3506</v>
       </c>
@@ -56635,7 +56636,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1180" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
         <v>3509</v>
       </c>
@@ -56667,7 +56668,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1181" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
         <v>3512</v>
       </c>
@@ -56699,7 +56700,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1182" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
         <v>3515</v>
       </c>
@@ -56731,7 +56732,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
         <v>3518</v>
       </c>
@@ -56763,7 +56764,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1184" s="1" t="s">
         <v>3521</v>
       </c>
@@ -56795,7 +56796,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1185" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
         <v>3524</v>
       </c>
@@ -56827,7 +56828,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1186" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
         <v>3527</v>
       </c>
@@ -56859,7 +56860,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1187" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
         <v>3530</v>
       </c>
@@ -56891,7 +56892,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1188" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
         <v>3533</v>
       </c>
@@ -56923,7 +56924,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1189" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
         <v>3536</v>
       </c>
@@ -56955,7 +56956,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1190" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
         <v>3539</v>
       </c>
@@ -56987,7 +56988,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1191" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
         <v>3542</v>
       </c>
@@ -57019,7 +57020,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1192" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
         <v>3545</v>
       </c>
@@ -57051,7 +57052,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1193" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
         <v>3548</v>
       </c>
@@ -57083,7 +57084,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1194" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
         <v>3551</v>
       </c>
@@ -57115,7 +57116,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1195" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
         <v>3554</v>
       </c>
@@ -57147,7 +57148,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1196" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
         <v>3557</v>
       </c>
@@ -57179,7 +57180,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1197" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
         <v>3560</v>
       </c>
@@ -57211,7 +57212,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1198" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
         <v>3563</v>
       </c>
@@ -57243,7 +57244,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1199" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
         <v>3566</v>
       </c>
@@ -57275,7 +57276,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1200" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
         <v>3569</v>
       </c>
@@ -57307,7 +57308,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1201" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
         <v>3572</v>
       </c>
@@ -57339,7 +57340,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1202" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
         <v>3574</v>
       </c>
@@ -57371,7 +57372,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1203" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
         <v>3576</v>
       </c>
@@ -57403,7 +57404,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1204" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
         <v>3578</v>
       </c>
@@ -57435,7 +57436,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1205" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
         <v>3580</v>
       </c>
@@ -57467,7 +57468,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1206" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
         <v>3582</v>
       </c>
@@ -57499,7 +57500,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1207" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
         <v>3584</v>
       </c>
@@ -57531,7 +57532,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1208" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
         <v>3587</v>
       </c>
@@ -57563,7 +57564,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1209" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
         <v>3590</v>
       </c>
@@ -57595,7 +57596,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1210" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
         <v>3593</v>
       </c>
@@ -57627,7 +57628,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1211" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
         <v>3595</v>
       </c>
@@ -57659,7 +57660,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1212" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
         <v>3597</v>
       </c>
@@ -57691,7 +57692,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1213" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
         <v>3599</v>
       </c>
@@ -57723,7 +57724,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1214" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
         <v>3601</v>
       </c>
@@ -57755,7 +57756,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1215" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
         <v>3603</v>
       </c>
@@ -57787,7 +57788,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1216" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>3605</v>
       </c>
@@ -57819,7 +57820,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1217" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
         <v>3607</v>
       </c>
@@ -57851,7 +57852,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1218" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
         <v>3609</v>
       </c>
@@ -57883,7 +57884,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1219" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
         <v>3611</v>
       </c>
@@ -57915,7 +57916,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1220" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
         <v>3613</v>
       </c>
@@ -57947,7 +57948,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1221" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
         <v>3615</v>
       </c>
@@ -57979,7 +57980,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1222" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>3617</v>
       </c>
@@ -58011,7 +58012,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1223" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
         <v>3619</v>
       </c>
@@ -58043,7 +58044,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1224" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
         <v>3621</v>
       </c>
@@ -58075,7 +58076,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1225" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
         <v>3623</v>
       </c>
@@ -58107,7 +58108,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1226" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
         <v>3626</v>
       </c>
@@ -58139,7 +58140,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1227" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
         <v>3629</v>
       </c>
@@ -58171,7 +58172,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1228" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
         <v>3632</v>
       </c>
@@ -58203,7 +58204,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1229" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
         <v>3635</v>
       </c>
@@ -58235,7 +58236,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1230" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
         <v>3638</v>
       </c>
@@ -58267,7 +58268,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1231" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
         <v>3641</v>
       </c>
@@ -58299,7 +58300,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1232" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
         <v>3644</v>
       </c>
@@ -58331,7 +58332,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1233" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
         <v>3647</v>
       </c>
@@ -58363,7 +58364,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1234" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
         <v>3650</v>
       </c>
@@ -58395,7 +58396,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1235" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
         <v>3653</v>
       </c>
@@ -58427,7 +58428,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1236" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
         <v>3656</v>
       </c>
@@ -58459,7 +58460,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1237" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
         <v>3658</v>
       </c>
@@ -58491,7 +58492,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1238" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
         <v>3661</v>
       </c>
@@ -58523,7 +58524,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1239" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>3664</v>
       </c>
@@ -58555,7 +58556,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1240" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
         <v>3666</v>
       </c>
@@ -58587,7 +58588,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1241" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
         <v>3668</v>
       </c>
@@ -58619,7 +58620,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1242" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
         <v>3670</v>
       </c>
@@ -58651,7 +58652,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1243" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
         <v>3672</v>
       </c>
@@ -58683,7 +58684,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1244" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
         <v>3674</v>
       </c>
@@ -58715,7 +58716,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1245" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
         <v>3676</v>
       </c>
@@ -58747,7 +58748,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1246" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
         <v>3678</v>
       </c>
@@ -58779,7 +58780,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1247" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
         <v>3680</v>
       </c>
@@ -58811,7 +58812,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1248" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
         <v>3683</v>
       </c>
@@ -58843,7 +58844,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1249" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
         <v>3686</v>
       </c>
@@ -58875,7 +58876,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1250" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
         <v>3689</v>
       </c>
@@ -58907,7 +58908,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1251" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
         <v>3692</v>
       </c>
@@ -58939,7 +58940,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1252" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
         <v>3695</v>
       </c>
@@ -58971,7 +58972,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1253" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
         <v>3698</v>
       </c>
@@ -59003,7 +59004,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1254" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
         <v>3701</v>
       </c>
@@ -59035,7 +59036,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1255" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
         <v>3704</v>
       </c>
@@ -59067,7 +59068,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1256" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
         <v>3707</v>
       </c>
@@ -59099,7 +59100,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1257" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
         <v>3710</v>
       </c>
@@ -59131,7 +59132,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1258" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
         <v>3713</v>
       </c>
@@ -59163,7 +59164,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1259" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
         <v>3716</v>
       </c>
@@ -59195,7 +59196,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1260" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
         <v>3719</v>
       </c>
@@ -59227,7 +59228,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1261" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
         <v>3722</v>
       </c>
@@ -65451,7 +65452,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1439" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1439" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
         <v>4270</v>
       </c>
@@ -65483,7 +65484,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1440" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
         <v>4272</v>
       </c>
@@ -65515,7 +65516,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1441" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1441" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
         <v>4274</v>
       </c>
@@ -65547,7 +65548,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1442" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1442" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1442" t="s">
         <v>4276</v>
       </c>
@@ -65579,7 +65580,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1443" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1443" t="s">
         <v>4278</v>
       </c>
@@ -65611,7 +65612,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1444" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1444" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
         <v>4280</v>
       </c>
@@ -65643,7 +65644,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1445" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
         <v>4282</v>
       </c>
@@ -65675,7 +65676,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1446" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
         <v>4284</v>
       </c>
@@ -65707,7 +65708,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1447" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
         <v>4286</v>
       </c>
@@ -65739,7 +65740,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1448" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
         <v>4288</v>
       </c>
@@ -65771,7 +65772,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1449" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1449" t="s">
         <v>4290</v>
       </c>
@@ -65803,7 +65804,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1450" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1450" t="s">
         <v>4292</v>
       </c>
@@ -65835,7 +65836,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1451" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1451" t="s">
         <v>4294</v>
       </c>
@@ -65867,7 +65868,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1452" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1452" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
         <v>4296</v>
       </c>
@@ -65899,7 +65900,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1453" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1453" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1453" t="s">
         <v>4299</v>
       </c>
@@ -65931,7 +65932,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1454" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1454" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1454" t="s">
         <v>4302</v>
       </c>
@@ -65963,7 +65964,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1455" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1455" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1455" t="s">
         <v>4305</v>
       </c>
@@ -65995,7 +65996,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1456" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1456" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1456" t="s">
         <v>4308</v>
       </c>
@@ -66027,7 +66028,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1457" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1457" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1457" t="s">
         <v>4311</v>
       </c>
@@ -66059,7 +66060,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1458" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1458" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1458" t="s">
         <v>4314</v>
       </c>
@@ -66091,7 +66092,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1459" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1459" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1459" t="s">
         <v>4317</v>
       </c>
@@ -66123,7 +66124,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1460" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1460" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1460" t="s">
         <v>4320</v>
       </c>
@@ -66155,7 +66156,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1461" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1461" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1461" t="s">
         <v>4323</v>
       </c>
@@ -66187,7 +66188,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1462" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1462" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1462" t="s">
         <v>4326</v>
       </c>
@@ -66219,7 +66220,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1463" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1463" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
         <v>4329</v>
       </c>
@@ -66251,7 +66252,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1464" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1464" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1464" t="s">
         <v>4332</v>
       </c>
@@ -66283,7 +66284,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1465" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1465" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1465" t="s">
         <v>4335</v>
       </c>
@@ -66315,7 +66316,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1466" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1466" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1466" t="s">
         <v>4338</v>
       </c>
@@ -66347,7 +66348,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1467" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1467" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1467" t="s">
         <v>4341</v>
       </c>
@@ -66379,7 +66380,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1468" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1468" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1468" t="s">
         <v>4344</v>
       </c>
@@ -66411,7 +66412,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1469" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1469" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1469" t="s">
         <v>4347</v>
       </c>
@@ -66443,7 +66444,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1470" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1470" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1470" t="s">
         <v>4350</v>
       </c>
@@ -66475,7 +66476,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1471" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1471" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
         <v>4353</v>
       </c>
@@ -66507,7 +66508,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1472" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1472" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1472" t="s">
         <v>4356</v>
       </c>
@@ -66539,7 +66540,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1473" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1473" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1473" t="s">
         <v>4359</v>
       </c>
@@ -66571,7 +66572,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1474" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1474" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
         <v>4362</v>
       </c>
@@ -66603,7 +66604,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1475" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1475" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
         <v>4365</v>
       </c>
@@ -66635,7 +66636,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1476" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1476" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
         <v>4368</v>
       </c>
@@ -66667,7 +66668,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1477" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1477" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
         <v>4371</v>
       </c>
@@ -66699,7 +66700,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1478" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1478" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
         <v>4373</v>
       </c>
@@ -66731,7 +66732,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1479" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1479" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
         <v>4375</v>
       </c>
@@ -66763,7 +66764,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1480" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1480" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
         <v>4377</v>
       </c>
@@ -66795,7 +66796,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1481" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1481" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
         <v>4380</v>
       </c>
@@ -66827,7 +66828,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1482" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1482" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
         <v>4383</v>
       </c>
@@ -66859,7 +66860,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1483" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1483" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
         <v>4386</v>
       </c>
@@ -66891,7 +66892,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1484" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1484" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
         <v>4389</v>
       </c>
@@ -66923,7 +66924,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1485" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1485" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
         <v>4392</v>
       </c>
@@ -66955,7 +66956,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1486" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1486" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
         <v>4395</v>
       </c>
@@ -66987,7 +66988,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1487" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
         <v>4397</v>
       </c>
@@ -67019,7 +67020,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1488" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1488" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
         <v>4399</v>
       </c>
@@ -67051,7 +67052,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1489" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1489" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
         <v>4401</v>
       </c>
@@ -67083,7 +67084,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1490" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1490" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
         <v>4403</v>
       </c>
@@ -67115,7 +67116,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1491" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1491" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
         <v>4405</v>
       </c>
@@ -67147,7 +67148,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1492" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1492" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
         <v>4407</v>
       </c>
@@ -67179,7 +67180,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1493" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
         <v>4409</v>
       </c>
@@ -67211,7 +67212,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1494" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1494" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
         <v>4411</v>
       </c>
@@ -67243,7 +67244,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1495" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1495" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
         <v>4413</v>
       </c>
@@ -67275,7 +67276,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1496" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1496" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
         <v>4415</v>
       </c>
@@ -67307,7 +67308,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1497" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1497" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
         <v>4417</v>
       </c>
@@ -67339,7 +67340,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1498" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1498" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
         <v>4419</v>
       </c>
@@ -67371,7 +67372,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1499" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
         <v>4421</v>
       </c>
@@ -67403,7 +67404,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1500" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1500" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
         <v>4424</v>
       </c>
@@ -67435,7 +67436,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1501" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1501" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
         <v>4427</v>
       </c>
@@ -67467,7 +67468,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1502" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1502" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
         <v>4430</v>
       </c>
@@ -67499,7 +67500,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1503" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1503" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
         <v>4433</v>
       </c>
@@ -67531,7 +67532,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1504" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1504" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
         <v>4436</v>
       </c>
@@ -67563,7 +67564,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1505" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1505" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
         <v>4439</v>
       </c>
@@ -67595,7 +67596,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1506" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1506" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
         <v>4442</v>
       </c>
@@ -67627,7 +67628,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1507" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1507" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
         <v>4445</v>
       </c>
@@ -67659,7 +67660,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1508" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1508" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
         <v>4448</v>
       </c>
@@ -67691,7 +67692,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1509" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1509" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
         <v>4451</v>
       </c>
@@ -67723,7 +67724,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1510" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1510" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
         <v>4454</v>
       </c>
@@ -67755,7 +67756,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1511" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1511" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
         <v>4457</v>
       </c>
@@ -67787,7 +67788,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1512" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1512" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
         <v>4459</v>
       </c>
@@ -67819,7 +67820,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1513" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1513" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
         <v>4462</v>
       </c>
@@ -67851,7 +67852,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1514" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1514" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
         <v>4465</v>
       </c>
@@ -67886,7 +67887,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1515" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1515" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
         <v>4468</v>
       </c>
@@ -67921,7 +67922,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1516" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1516" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
         <v>4471</v>
       </c>
@@ -67956,7 +67957,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1517" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1517" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
         <v>4474</v>
       </c>
@@ -67991,7 +67992,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1518" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1518" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
         <v>4477</v>
       </c>
@@ -68026,7 +68027,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1519" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1519" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
         <v>4480</v>
       </c>
@@ -68061,7 +68062,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1520" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1520" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
         <v>4483</v>
       </c>
@@ -68096,7 +68097,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1521" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1521" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
         <v>4487</v>
       </c>
@@ -68131,7 +68132,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1522" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1522" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
         <v>4489</v>
       </c>
@@ -68166,7 +68167,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1523" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1523" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
         <v>4492</v>
       </c>
@@ -68201,7 +68202,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1524" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1524" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
         <v>4495</v>
       </c>
@@ -68236,7 +68237,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1525" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1525" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
         <v>4497</v>
       </c>
@@ -68271,7 +68272,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1526" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1526" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
         <v>4500</v>
       </c>
@@ -68306,7 +68307,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1527" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1527" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
         <v>4503</v>
       </c>
@@ -68341,7 +68342,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1528" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1528" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1528" t="s">
         <v>4506</v>
       </c>
@@ -68376,7 +68377,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1529" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1529" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
         <v>4508</v>
       </c>
@@ -68411,7 +68412,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1530" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1530" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
         <v>4510</v>
       </c>
@@ -68446,7 +68447,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1531" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1531" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
         <v>4512</v>
       </c>
@@ -68481,7 +68482,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1532" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1532" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
         <v>4514</v>
       </c>
@@ -68516,7 +68517,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1533" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1533" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
         <v>4516</v>
       </c>
@@ -68551,7 +68552,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1534" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1534" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
         <v>4519</v>
       </c>
@@ -68586,7 +68587,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1535" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1535" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
         <v>4522</v>
       </c>
@@ -68621,7 +68622,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1536" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1536" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
         <v>4525</v>
       </c>
@@ -68656,7 +68657,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1537" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1537" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
         <v>4528</v>
       </c>
@@ -68691,7 +68692,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1538" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1538" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
         <v>4531</v>
       </c>
@@ -68726,7 +68727,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1539" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1539" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
         <v>4534</v>
       </c>
@@ -68761,7 +68762,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1540" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1540" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
         <v>4537</v>
       </c>
@@ -68796,7 +68797,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1541" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1541" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
         <v>4540</v>
       </c>
@@ -68831,7 +68832,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1542" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1542" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
         <v>4543</v>
       </c>
@@ -68866,7 +68867,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1543" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1543" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
         <v>4546</v>
       </c>
@@ -68901,7 +68902,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1544" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1544" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
         <v>4549</v>
       </c>
@@ -68936,7 +68937,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1545" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1545" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
         <v>4553</v>
       </c>
@@ -68971,7 +68972,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1546" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1546" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
         <v>4556</v>
       </c>
@@ -69006,7 +69007,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1547" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1547" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
         <v>4559</v>
       </c>
@@ -69041,7 +69042,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1548" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1548" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1548" s="1" t="s">
         <v>4562</v>
       </c>
@@ -69076,7 +69077,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1549" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1549" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
         <v>4565</v>
       </c>
@@ -69111,7 +69112,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1550" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1550" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
         <v>4568</v>
       </c>
@@ -69146,7 +69147,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1551" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1551" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
         <v>4571</v>
       </c>
@@ -69181,7 +69182,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1552" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1552" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
         <v>4574</v>
       </c>
@@ -69216,7 +69217,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1553" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1553" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
         <v>4577</v>
       </c>
@@ -69251,7 +69252,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1554" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1554" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
         <v>4579</v>
       </c>
@@ -69286,7 +69287,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1555" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1555" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
         <v>4581</v>
       </c>
@@ -69321,7 +69322,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1556" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1556" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
         <v>4583</v>
       </c>
@@ -69356,7 +69357,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1557" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1557" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1557" s="1" t="s">
         <v>4585</v>
       </c>
@@ -69391,7 +69392,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1558" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1558" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
         <v>4588</v>
       </c>
@@ -69426,7 +69427,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1559" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1559" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
         <v>4591</v>
       </c>
@@ -69461,7 +69462,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1560" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1560" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
         <v>4594</v>
       </c>
@@ -69496,7 +69497,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1561" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1561" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
         <v>4596</v>
       </c>
@@ -69531,7 +69532,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1562" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1562" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
         <v>4598</v>
       </c>
@@ -69566,7 +69567,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1563" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1563" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
         <v>4600</v>
       </c>
@@ -69601,7 +69602,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1564" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1564" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1564" s="1" t="s">
         <v>4602</v>
       </c>
@@ -69636,7 +69637,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1565" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1565" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
         <v>4604</v>
       </c>
@@ -69671,7 +69672,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1566" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1566" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
         <v>4606</v>
       </c>
@@ -69706,7 +69707,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1567" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1567" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
         <v>4609</v>
       </c>
@@ -69741,7 +69742,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1568" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1568" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
         <v>4613</v>
       </c>
@@ -69776,7 +69777,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1569" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1569" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1569" t="s">
         <v>4616</v>
       </c>
@@ -69811,7 +69812,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1570" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1570" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1570" t="s">
         <v>4620</v>
       </c>
@@ -69846,7 +69847,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1571" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1571" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
         <v>4623</v>
       </c>
@@ -69881,7 +69882,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="1572" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1572" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
         <v>4626</v>
       </c>
@@ -75963,7 +75964,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E1745"/>
+  <autoFilter ref="A1:K1745">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Allergan, Inc."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
